--- a/upgit/sample_endogenous_documents/mapping.xlsx
+++ b/upgit/sample_endogenous_documents/mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -79,7 +79,13 @@
     <t xml:space="preserve">Nguyễn Hữu</t>
   </si>
   <si>
+    <t xml:space="preserve">21103079 - Nguyen Huu.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nguyễn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21103079 – Nguyen.pdf</t>
   </si>
 </sst>
 </file>
@@ -382,8 +388,8 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>21103999</v>
@@ -526,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
